--- a/Codigo/resultados_previsoes_1.xlsx
+++ b/Codigo/resultados_previsoes_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arq. Andrea\Documents\Yuri\git\previsao-ibovespa\Codigo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corptb-my.sharepoint.com/personal/yupopic_tbdir_net/Documents/000 - Pessoal/070 - VSCODE/072 - Tech Challenge/Fase 2/previsao-ibovespa/Codigo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5228264-6B5B-48EF-886C-6E6A9A0EC0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E5228264-6B5B-48EF-886C-6E6A9A0EC0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF21C73-954B-4F05-A8EF-0DFF9FC2D1F1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,25 +611,25 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45856</v>
       </c>
@@ -699,7 +699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45856</v>
       </c>
@@ -734,7 +734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45856</v>
       </c>
@@ -769,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45856</v>
       </c>
@@ -804,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45856</v>
       </c>
@@ -839,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45856</v>
       </c>
@@ -874,7 +874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45856</v>
       </c>
@@ -909,7 +909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45856</v>
       </c>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45856</v>
       </c>
@@ -979,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45856</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45856</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45856</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45856</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45856</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45856</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45856</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45856</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45856</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45856</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45856</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45856</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45856</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45856</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45856</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45856</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45856</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>45856</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45856</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>45856</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>45856</v>
       </c>
@@ -1717,4 +1717,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{b97ea58d-47e6-47cc-9ab7-39ab03def869}" enabled="1" method="Standard" siteId="{505cca53-5750-4134-9501-8d52d5df3cd1}" removed="0"/>
+</clbl:labelList>
 </file>